--- a/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>ALGM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44099</v>
+      </c>
+      <c r="F7" s="2">
         <v>44008</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43917</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43644</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>39353</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>39262</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>39171</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>39080</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>164400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>136600</v>
+      </c>
+      <c r="F8" s="3">
         <v>115000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>650100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>152400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>79700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>78700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>79300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>80200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>74900</v>
+      </c>
+      <c r="F9" s="3">
         <v>59300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>388800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>93100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>53700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>53900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>51300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>52700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F10" s="3">
         <v>55700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>261300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>59300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>26000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>24800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>28000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>27500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F12" s="3">
         <v>24400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>102100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>26100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>10700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>10600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>10500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>9100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -909,16 +954,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>11</v>
@@ -929,8 +974,14 @@
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>197700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>124200</v>
+      </c>
+      <c r="F17" s="3">
         <v>110500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>597300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>144700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>75400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>75800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>73700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>73400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>52800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F21" s="3">
         <v>16900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>117300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>26100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,81 +1161,99 @@
       <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>53300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>10600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>16200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F26" s="3">
         <v>4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>37100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>37000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>37000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>37000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44099</v>
+      </c>
+      <c r="F38" s="2">
         <v>44008</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43917</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43644</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>39353</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>39262</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>39171</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>39080</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,20 +1705,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>157700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F41" s="3">
         <v>215600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1563,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,20 +1771,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>77500</v>
+      </c>
+      <c r="F43" s="3">
         <v>74600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>11</v>
       </c>
@@ -1621,20 +1806,26 @@
       <c r="K43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>104800</v>
+      </c>
+      <c r="F44" s="3">
         <v>108400</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
@@ -1650,20 +1841,26 @@
       <c r="K44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
@@ -1679,20 +1876,26 @@
       <c r="K45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>378500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>407200</v>
+      </c>
+      <c r="F46" s="3">
         <v>410300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>11</v>
       </c>
@@ -1708,20 +1911,26 @@
       <c r="K46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>81400</v>
+      </c>
+      <c r="F47" s="3">
         <v>79800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
@@ -1737,20 +1946,26 @@
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>214400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>217900</v>
+      </c>
+      <c r="F48" s="3">
         <v>219100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>11</v>
       </c>
@@ -1766,20 +1981,26 @@
       <c r="K48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F49" s="3">
         <v>21400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,20 +2086,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F52" s="3">
         <v>18900</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,20 +2156,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>711900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>779700</v>
+      </c>
+      <c r="F54" s="3">
         <v>749500</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>11</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,20 +2225,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F57" s="3">
         <v>22900</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>11</v>
       </c>
@@ -1995,19 +2256,25 @@
       <c r="K57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>33000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
+      <c r="F58" s="3">
+        <v>33000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
@@ -2024,20 +2291,26 @@
       <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F59" s="3">
         <v>56100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2053,20 +2326,26 @@
       <c r="K59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>122900</v>
+      </c>
+      <c r="F60" s="3">
         <v>112100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2082,13 +2361,19 @@
       <c r="K60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2111,20 +2396,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F62" s="3">
         <v>13500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,20 +2536,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>145200</v>
+      </c>
+      <c r="F66" s="3">
         <v>126500</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,20 +2726,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>208800</v>
+      </c>
+      <c r="F72" s="3">
         <v>199200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,20 +2866,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>575800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>634500</v>
+      </c>
+      <c r="F76" s="3">
         <v>623000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>11</v>
       </c>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44099</v>
+      </c>
+      <c r="F80" s="2">
         <v>44008</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43917</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43644</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>39353</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>39262</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>39171</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>39080</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>37000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,26 +3030,28 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F83" s="3">
         <v>11500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>64000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>15500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>11</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,26 +3236,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F89" s="3">
         <v>25700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>81400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>11</v>
       </c>
@@ -2838,8 +3271,14 @@
       <c r="K89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,26 +3290,28 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-45600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-10800</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>11</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,26 +3391,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-24300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-41700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-6900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>11</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,26 +3581,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-72200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>82500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>30000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>11</v>
       </c>
@@ -3125,26 +3616,32 @@
       <c r="K100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-5600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>11</v>
       </c>
@@ -3154,26 +3651,32 @@
       <c r="K101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>116600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>21300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>11</v>
       </c>
@@ -3181,6 +3684,12 @@
         <v>11</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>ALGM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44372</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44281</v>
+      </c>
+      <c r="F7" s="2">
         <v>44190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44099</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43917</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>39353</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>39262</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>39171</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>39080</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>175100</v>
+      </c>
+      <c r="F8" s="3">
         <v>164400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>136600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>115000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>650100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>152400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>79700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>78700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>79300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>80200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>88100</v>
+      </c>
+      <c r="F9" s="3">
         <v>90000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>74900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>59300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>388800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>93100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>53700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>53900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>51300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>52700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F10" s="3">
         <v>74400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>61700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>55700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>261300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>59300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>26000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>24800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>28000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>27500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F12" s="3">
         <v>31000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>25100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>24400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>102100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>26100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>10700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>10500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>9500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,20 +944,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F14" s="3">
         <v>9100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
@@ -936,17 +976,23 @@
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,22 +1000,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>155900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>155700</v>
+      </c>
+      <c r="F17" s="3">
         <v>197700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>124200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>110500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>597300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>144700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>75400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>75800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>73700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>73400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-33300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>12400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>52800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1143,92 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>24200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>16900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>117300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>26100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1167,93 +1247,111 @@
       <c r="H22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-35600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>11700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>53300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>10600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-30500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>16200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>37100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>37000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>37000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>37000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44372</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44281</v>
+      </c>
+      <c r="F38" s="2">
         <v>44190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44099</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43917</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>39353</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>39262</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>39171</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>39080</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,26 +1879,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>221900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>197200</v>
+      </c>
+      <c r="F41" s="3">
         <v>157700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>202000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>215600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1742,8 +1916,14 @@
       <c r="M41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,26 +1957,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>94800</v>
+      </c>
+      <c r="F43" s="3">
         <v>88900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>77500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>74600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>11</v>
       </c>
@@ -1812,26 +1998,32 @@
       <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>87500</v>
+      </c>
+      <c r="F44" s="3">
         <v>94000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>104800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>108400</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>11</v>
       </c>
@@ -1847,26 +2039,32 @@
       <c r="M44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F45" s="3">
         <v>38000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>11</v>
       </c>
@@ -1882,26 +2080,32 @@
       <c r="M45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>452500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>430600</v>
+      </c>
+      <c r="F46" s="3">
         <v>378500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>407200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>410300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>11</v>
       </c>
@@ -1917,26 +2121,32 @@
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F47" s="3">
         <v>33300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>81400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>79800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>11</v>
       </c>
@@ -1952,8 +2162,14 @@
       <c r="M47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,17 +2177,17 @@
         <v>214400</v>
       </c>
       <c r="E48" s="3">
+        <v>192400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>214400</v>
+      </c>
+      <c r="G48" s="3">
         <v>217900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>219100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>11</v>
       </c>
@@ -1987,26 +2203,32 @@
       <c r="M48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56700</v>
+        <v>56400</v>
       </c>
       <c r="E49" s="3">
         <v>56500</v>
       </c>
       <c r="F49" s="3">
+        <v>56700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>56500</v>
+      </c>
+      <c r="H49" s="3">
         <v>21400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,26 +2326,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>41600</v>
+      </c>
+      <c r="F52" s="3">
         <v>29000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>16700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>18900</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,26 +2408,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>796900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>747700</v>
+      </c>
+      <c r="F54" s="3">
         <v>711900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>779700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>749500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,26 +2487,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>37700</v>
+      </c>
+      <c r="F57" s="3">
         <v>22300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>25000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>22900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2262,26 +2524,32 @@
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>33000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>33000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
       </c>
@@ -2297,26 +2565,32 @@
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F59" s="3">
         <v>66800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>64900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>56100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2332,26 +2606,32 @@
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>116700</v>
+      </c>
+      <c r="F60" s="3">
         <v>89100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>122900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>112100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2367,8 +2647,14 @@
       <c r="M60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,10 +2662,10 @@
         <v>25000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2402,26 +2688,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F62" s="3">
         <v>20900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>21300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,26 +2852,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>161900</v>
+      </c>
+      <c r="F66" s="3">
         <v>136100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>145200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>126500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,26 +3074,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>208800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>199200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>11</v>
       </c>
@@ -2767,8 +3115,14 @@
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,26 +3238,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>618300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>585800</v>
+      </c>
+      <c r="F76" s="3">
         <v>575800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>634500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>623000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>11</v>
       </c>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44372</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44281</v>
+      </c>
+      <c r="F80" s="2">
         <v>44190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44099</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43917</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>39353</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>39262</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>39171</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>39080</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>37000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,23 +3439,23 @@
         <v>12200</v>
       </c>
       <c r="E83" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G83" s="3">
         <v>12500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>11500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>64000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>15500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>11</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,32 +3670,38 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F89" s="3">
         <v>34900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>25700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>81400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>11</v>
       </c>
@@ -3277,8 +3711,14 @@
       <c r="M89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,32 +3732,34 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-10100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-45600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-10800</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>11</v>
       </c>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,32 +3851,38 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-18300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-24300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-41700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-6900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>11</v>
       </c>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,32 +4073,38 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-72200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>82500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>30000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>11</v>
       </c>
@@ -3622,32 +4114,38 @@
       <c r="M100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>3700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-5600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>11</v>
       </c>
@@ -3657,32 +4155,38 @@
       <c r="M101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-44200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-11600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>116600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>21300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>11</v>
       </c>
@@ -3690,6 +4194,12 @@
         <v>11</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>ALGM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44463</v>
+      </c>
+      <c r="E7" s="2">
         <v>44372</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44099</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43917</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>39353</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>39262</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>39171</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>39080</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>193600</v>
+      </c>
+      <c r="E8" s="3">
         <v>188100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>175100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>164400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>136600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>115000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>650100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>152400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>80200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E9" s="3">
         <v>94000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>88100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>90000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>388800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>93100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E10" s="3">
         <v>94100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>87000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>261300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>59300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,40 +891,43 @@
         <v>29600</v>
       </c>
       <c r="E12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F12" s="3">
         <v>28100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>102100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,23 +967,26 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
         <v>7100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1002,8 @@
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,11 +1023,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1012,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E17" s="3">
         <v>155900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>155700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>197700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>124200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>110500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>597300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>144700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>73400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E18" s="3">
         <v>32200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>52800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,76 +1178,80 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E21" s="3">
         <v>44100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>117300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1224,11 +1261,14 @@
       <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,105 +1293,114 @@
       <c r="J22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E23" s="3">
         <v>32000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-30500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>900</v>
       </c>
       <c r="M24" s="3">
         <v>900</v>
       </c>
       <c r="N24" s="3">
+        <v>900</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E26" s="3">
         <v>27700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E27" s="3">
         <v>27700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1704,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E33" s="3">
         <v>27700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E35" s="3">
         <v>27700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44463</v>
+      </c>
+      <c r="E38" s="2">
         <v>44372</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44099</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43917</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>39353</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>39262</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>39171</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>39080</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,29 +1967,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>248600</v>
+      </c>
+      <c r="E41" s="3">
         <v>221900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>197200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>157700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>202000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>215600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,29 +2053,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E43" s="3">
         <v>103100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>94800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>88900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>77500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>74600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2004,29 +2097,32 @@
       <c r="O43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E44" s="3">
         <v>82400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>87500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>94000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>104800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>108400</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>11</v>
       </c>
@@ -2045,29 +2141,32 @@
       <c r="O44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E45" s="3">
         <v>45100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2086,29 +2185,32 @@
       <c r="O45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>445900</v>
+      </c>
+      <c r="E46" s="3">
         <v>452500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>430600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>378500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>407200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>410300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2127,29 +2229,32 @@
       <c r="O46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E47" s="3">
         <v>26900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>33300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>81400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>79800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2168,29 +2273,32 @@
       <c r="O47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>215100</v>
+      </c>
+      <c r="E48" s="3">
         <v>214400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>192400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>214400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>217900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>219100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2209,29 +2317,32 @@
       <c r="O48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E49" s="3">
         <v>56400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>56500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>56700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,29 +2449,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E52" s="3">
         <v>46600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18900</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,29 +2537,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>803300</v>
+      </c>
+      <c r="E54" s="3">
         <v>796900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>747700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>711900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>779700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>749500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,29 +2619,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E57" s="3">
         <v>38800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2530,28 +2661,31 @@
       <c r="O57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>33000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>11</v>
+      <c r="I58" s="3">
+        <v>33000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>11</v>
@@ -2571,29 +2705,32 @@
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E59" s="3">
         <v>80200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>78900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>64900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2612,29 +2749,32 @@
       <c r="O59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E60" s="3">
         <v>119000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>89100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>122900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>112100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2653,8 +2793,11 @@
       <c r="O60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2668,7 +2811,7 @@
         <v>25000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2694,29 +2837,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E62" s="3">
         <v>33500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,29 +3013,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E66" s="3">
         <v>178600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>161900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>136100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>145200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>126500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2899,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,29 +3251,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E72" s="3">
         <v>31200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>208800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>199200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3121,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,29 +3427,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>655400</v>
+      </c>
+      <c r="E76" s="3">
         <v>618300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>585800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>575800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>634500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>623000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3285,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44463</v>
+      </c>
+      <c r="E80" s="2">
         <v>44372</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44099</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43917</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>39353</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>39262</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>39171</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>39080</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E81" s="3">
         <v>27700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,35 +3628,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E83" s="3">
         <v>12200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>11</v>
       </c>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,35 +3890,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E89" s="3">
         <v>38500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>57000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>34900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>81400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>11</v>
       </c>
@@ -3717,8 +3934,11 @@
       <c r="O89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,35 +3954,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-45600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>11</v>
       </c>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,35 +4084,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>11</v>
       </c>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,35 +4322,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-72200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>82500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>30000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>11</v>
       </c>
@@ -4120,35 +4366,38 @@
       <c r="O100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4161,35 +4410,38 @@
       <c r="O101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E102" s="3">
         <v>25800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-44200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>116600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>11</v>
       </c>
@@ -4200,6 +4452,9 @@
         <v>11</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>ALGM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44554</v>
+      </c>
+      <c r="E7" s="2">
         <v>44463</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44372</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44099</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43917</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43644</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>39353</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>39262</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>39171</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39080</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>186600</v>
+      </c>
+      <c r="E8" s="3">
         <v>193600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>188100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>175100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>164400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>136600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>115000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>650100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>152400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>78700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>79300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>80200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E9" s="3">
         <v>91100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>94000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>88100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>90000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>74900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>388800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>93100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E10" s="3">
         <v>102500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>94100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>87000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>74400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>55700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>261300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>29600</v>
+        <v>30300</v>
       </c>
       <c r="E12" s="3">
         <v>29600</v>
       </c>
       <c r="F12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="G12" s="3">
         <v>28100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>31000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>102100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,26 +986,29 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3">
         <v>7100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1024,8 @@
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1014,23 +1033,26 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1038,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>11</v>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E17" s="3">
         <v>155100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>155900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>155700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>197700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>124200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>110500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>597300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>144700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>73700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>73400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E18" s="3">
         <v>38500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>52800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,82 +1211,86 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E21" s="3">
         <v>51700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>117300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1264,11 +1300,14 @@
       <c r="O21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1296,111 +1335,120 @@
       <c r="K22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
       </c>
       <c r="O22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E23" s="3">
         <v>39400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>53300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E24" s="3">
         <v>6100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-30500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>900</v>
       </c>
       <c r="N24" s="3">
         <v>900</v>
       </c>
       <c r="O24" s="3">
+        <v>900</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E26" s="3">
         <v>33200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E27" s="3">
         <v>33200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>37000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E33" s="3">
         <v>33200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>37000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E35" s="3">
         <v>33200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>37000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44554</v>
+      </c>
+      <c r="E38" s="2">
         <v>44463</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44372</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44099</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43917</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43644</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>39353</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>39262</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>39171</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39080</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,32 +2053,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>259200</v>
+      </c>
+      <c r="E41" s="3">
         <v>248600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>221900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>197200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>157700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>202000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>215600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2012,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,32 +2145,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E43" s="3">
         <v>99100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>103100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>88900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>77500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2100,32 +2192,35 @@
       <c r="P43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E44" s="3">
         <v>78000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>82400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>87500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>94000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>104800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>108400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>11</v>
       </c>
@@ -2144,32 +2239,35 @@
       <c r="P44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E45" s="3">
         <v>20200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2188,32 +2286,35 @@
       <c r="P45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>469200</v>
+      </c>
+      <c r="E46" s="3">
         <v>445900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>452500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>430600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>378500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>407200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>410300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2232,32 +2333,35 @@
       <c r="P46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E47" s="3">
         <v>27200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>33300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>81400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>79800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2276,32 +2380,35 @@
       <c r="P47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E48" s="3">
         <v>215100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>214400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>192400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>214400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>217900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>219100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2320,32 +2427,35 @@
       <c r="P48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E49" s="3">
         <v>56200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>56400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>56500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>56500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,32 +2568,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E52" s="3">
         <v>58800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>46600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,32 +2662,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>851400</v>
+      </c>
+      <c r="E54" s="3">
         <v>803300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>796900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>747700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>711900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>779700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>749500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2584,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,32 +2749,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E57" s="3">
         <v>32800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2664,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,20 +2808,20 @@
       <c r="E58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>33000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
+      <c r="J58" s="3">
+        <v>33000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>11</v>
@@ -2708,32 +2841,35 @@
       <c r="P58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E59" s="3">
         <v>55600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>80200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>78900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2752,32 +2888,35 @@
       <c r="P59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E60" s="3">
         <v>88400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>119000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>116700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>122900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>112100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2796,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2814,7 +2956,7 @@
         <v>25000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2840,32 +2982,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E62" s="3">
         <v>33300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,32 +3170,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>156700</v>
+      </c>
+      <c r="E66" s="3">
         <v>147800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>178600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>161900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>136100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>145200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>126500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3060,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,32 +3424,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E72" s="3">
         <v>64400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>31200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>208800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>199200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3298,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,32 +3612,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>694700</v>
+      </c>
+      <c r="E76" s="3">
         <v>655400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>618300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>585800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>575800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>634500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>623000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3474,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44554</v>
+      </c>
+      <c r="E80" s="2">
         <v>44463</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44372</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44099</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43917</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43644</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>39353</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>39262</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>39171</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39080</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E81" s="3">
         <v>33200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>37000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,38 +3826,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E83" s="3">
         <v>12300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>11</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,38 +4106,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E89" s="3">
         <v>31400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>57000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>81400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>11</v>
       </c>
@@ -3937,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,38 +4174,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-45600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>11</v>
       </c>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,38 +4313,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>11</v>
       </c>
@@ -4131,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,38 +4567,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>11</v>
+      <c r="D100" s="3">
+        <v>-7500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-72200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>82500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>30000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>11</v>
       </c>
@@ -4369,38 +4614,41 @@
       <c r="P100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4413,38 +4661,41 @@
       <c r="P101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E102" s="3">
         <v>26100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-44200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>116600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>11</v>
       </c>
@@ -4455,6 +4706,9 @@
         <v>11</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>ALGM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44645</v>
+      </c>
+      <c r="E7" s="2">
         <v>44554</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44463</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44372</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44099</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43917</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43644</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>39353</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>39262</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39171</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39080</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200300</v>
+      </c>
+      <c r="E8" s="3">
         <v>186600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>193600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>188100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>175100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>164400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>136600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>115000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>650100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>152400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>78700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>79300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>80200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E9" s="3">
         <v>85500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>91100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>94000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>88100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>90000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>74900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>388800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>93100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>51300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E10" s="3">
         <v>101100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>102500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>94100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>87000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>74400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>261300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>59300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E12" s="3">
         <v>30300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>29600</v>
       </c>
       <c r="F12" s="3">
         <v>29600</v>
       </c>
       <c r="G12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="H12" s="3">
         <v>28100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>31000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>102100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,29 +1006,32 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
         <v>7100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1047,8 @@
       <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1036,13 +1056,16 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1051,11 +1074,11 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1063,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>11</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E17" s="3">
         <v>151000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>155100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>155900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>155700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>197700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>124200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>110500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>597300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>144700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>73700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>73400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E18" s="3">
         <v>35600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-33300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,88 +1245,92 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E21" s="3">
         <v>51300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>51700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>117300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1303,11 +1340,14 @@
       <c r="P21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1338,117 +1378,126 @@
       <c r="L22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E23" s="3">
         <v>39300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-35600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>6300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-30500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>900</v>
       </c>
       <c r="O24" s="3">
         <v>900</v>
       </c>
       <c r="P24" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E26" s="3">
         <v>33000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E27" s="3">
         <v>32900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>33200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E33" s="3">
         <v>32900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E35" s="3">
         <v>32900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44645</v>
+      </c>
+      <c r="E38" s="2">
         <v>44554</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44463</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44372</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44099</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43917</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43644</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>39353</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>39262</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39171</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39080</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,35 +2140,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E41" s="3">
         <v>259200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>248600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>221900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>197200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>157700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>202000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>215600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,35 +2238,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E43" s="3">
         <v>107400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>99100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>103100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>94800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>88900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>77500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>74600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2195,35 +2288,38 @@
       <c r="Q43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E44" s="3">
         <v>78900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>82400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>87500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>94000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>104800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>108400</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>11</v>
       </c>
@@ -2242,35 +2338,38 @@
       <c r="Q44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E45" s="3">
         <v>23700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2289,35 +2388,38 @@
       <c r="Q45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>511700</v>
+      </c>
+      <c r="E46" s="3">
         <v>469200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>445900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>452500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>430600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>378500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>407200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>410300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2336,35 +2438,38 @@
       <c r="Q46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33600</v>
+        <v>67800</v>
       </c>
       <c r="E47" s="3">
+        <v>58400</v>
+      </c>
+      <c r="F47" s="3">
         <v>27200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>33300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>81400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>79800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2383,35 +2488,38 @@
       <c r="Q47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E48" s="3">
         <v>223600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>215100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>214400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>192400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>214400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>217900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>219100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,26 +2550,26 @@
         <v>56000</v>
       </c>
       <c r="E49" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F49" s="3">
         <v>56200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>56400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>56700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>56500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,35 +2688,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69000</v>
+        <v>31100</v>
       </c>
       <c r="E52" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F52" s="3">
         <v>58800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>46600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>41600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,35 +2788,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>892600</v>
+      </c>
+      <c r="E54" s="3">
         <v>851400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>803300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>796900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>747700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>711900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>779700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>749500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +2880,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E57" s="3">
         <v>38200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2811,20 +2945,20 @@
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>33000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>11</v>
+      <c r="K58" s="3">
+        <v>33000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>11</v>
@@ -2844,35 +2978,38 @@
       <c r="Q58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E59" s="3">
         <v>62600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>80200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>78900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>56100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2891,35 +3028,38 @@
       <c r="Q59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>119000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>116700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>89100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>122900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>112100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2959,7 +3102,7 @@
         <v>25000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2985,35 +3128,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E62" s="3">
         <v>29700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,35 +3328,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E66" s="3">
         <v>156700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>147800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>178600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>161900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>136100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>145200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>126500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3598,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E72" s="3">
         <v>97300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>64400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>208800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>199200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,35 +3798,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>734200</v>
+      </c>
+      <c r="E76" s="3">
         <v>694700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>655400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>618300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>585800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>575800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>634500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>623000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44645</v>
+      </c>
+      <c r="E80" s="2">
         <v>44554</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44463</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44372</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44099</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43917</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43644</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>39353</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>39262</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39171</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39080</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E81" s="3">
         <v>32900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,32 +4035,32 @@
         <v>12000</v>
       </c>
       <c r="E83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F83" s="3">
         <v>12300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>11</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,41 +4323,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E89" s="3">
         <v>48700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>38500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>57000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>34900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>81400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>11</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,41 +4395,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,41 +4543,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>11</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,41 +4813,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-72200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>82500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>11</v>
       </c>
@@ -4617,41 +4863,44 @@
       <c r="Q100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4664,41 +4913,44 @@
       <c r="Q101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E102" s="3">
         <v>11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>116600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>11</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>11</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>ALGM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44736</v>
+      </c>
+      <c r="E7" s="2">
         <v>44645</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44554</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44463</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44372</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44099</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43917</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43644</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>39353</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39262</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39171</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>39080</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>217800</v>
+      </c>
+      <c r="E8" s="3">
         <v>200300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>186600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>193600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>188100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>175100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>164400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>136600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>115000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>650100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>152400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>79700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>79300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>80200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E9" s="3">
         <v>90700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>85500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>91100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>94000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>88100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>90000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>74900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>388800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>53900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>51300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E10" s="3">
         <v>109600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>101100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>102500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>94100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>87000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>261300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>59300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E12" s="3">
         <v>32400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>29600</v>
       </c>
       <c r="G12" s="3">
         <v>29600</v>
       </c>
       <c r="H12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="I12" s="3">
         <v>28100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>31000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>102100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,32 +1026,35 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3">
         <v>7100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1050,8 +1070,8 @@
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,13 +1079,16 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1077,11 +1100,11 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1089,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>11</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E17" s="3">
         <v>170000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>151000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>155100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>155900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>155700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>197700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>124200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>110500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>597300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>144700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>75800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>73700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>73400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E18" s="3">
         <v>30300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>35600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>52800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,94 +1279,98 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E21" s="3">
         <v>42200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>51300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>51700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>117300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1343,11 +1380,14 @@
       <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1381,123 +1421,132 @@
       <c r="M22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E23" s="3">
         <v>30200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-35600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-30500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>900</v>
       </c>
       <c r="P24" s="3">
         <v>900</v>
       </c>
       <c r="Q24" s="3">
+        <v>900</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E26" s="3">
         <v>25700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E27" s="3">
         <v>25600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E33" s="3">
         <v>25600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E35" s="3">
         <v>25600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44736</v>
+      </c>
+      <c r="E38" s="2">
         <v>44645</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44554</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44463</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44372</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44099</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43917</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43644</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>39353</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39262</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39171</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>39080</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,38 +2227,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>286600</v>
+      </c>
+      <c r="E41" s="3">
         <v>282400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>259200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>248600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>221900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>197200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>157700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>202000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>215600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,38 +2331,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E43" s="3">
         <v>120700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>107400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>99100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>103100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>94800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>88900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>77500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2291,38 +2384,41 @@
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E44" s="3">
         <v>86200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>78000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>82400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>87500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>94000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>104800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>108400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>11</v>
       </c>
@@ -2341,38 +2437,41 @@
       <c r="R44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E45" s="3">
         <v>22400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2391,38 +2490,41 @@
       <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E46" s="3">
         <v>511700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>469200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>445900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>452500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>430600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>378500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>407200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>410300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2441,38 +2543,41 @@
       <c r="R46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E47" s="3">
         <v>67800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>58400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>33300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>81400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>79800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2491,38 +2596,41 @@
       <c r="R47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E48" s="3">
         <v>226100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>223600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>215100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>214400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>192400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>214400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>217900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>219100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2541,38 +2649,41 @@
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="E49" s="3">
         <v>56000</v>
       </c>
       <c r="F49" s="3">
+        <v>56000</v>
+      </c>
+      <c r="G49" s="3">
         <v>56200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>56500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>56700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,38 +2808,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E52" s="3">
         <v>31100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>44200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>46600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2914,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>926100</v>
+      </c>
+      <c r="E54" s="3">
         <v>892600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>851400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>803300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>796900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>747700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>711900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>779700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>749500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,38 +3011,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E57" s="3">
         <v>35100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,20 +3082,20 @@
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>33000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
+      <c r="L58" s="3">
+        <v>33000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>11</v>
@@ -2981,38 +3115,41 @@
       <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E59" s="3">
         <v>69200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>62600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>80200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>78900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3031,38 +3168,41 @@
       <c r="R59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E60" s="3">
         <v>104200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>119000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>116700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>89100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>122900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>112100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3105,7 +3248,7 @@
         <v>25000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3131,38 +3274,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E62" s="3">
         <v>28000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,38 +3486,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>163900</v>
+      </c>
+      <c r="E66" s="3">
         <v>158400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>156700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>147800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>178600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>161900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>136100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>145200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>126500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3772,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E72" s="3">
         <v>123000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>97300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>64400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>208800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>199200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,38 +3984,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>762200</v>
+      </c>
+      <c r="E76" s="3">
         <v>734200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>694700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>655400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>618300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>585800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>575800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>634500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>623000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44736</v>
+      </c>
+      <c r="E80" s="2">
         <v>44645</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44554</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44463</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44372</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44099</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43917</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43644</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>39353</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39262</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39171</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>39080</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E81" s="3">
         <v>25600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,44 +4224,45 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="E83" s="3">
         <v>12000</v>
       </c>
       <c r="F83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G83" s="3">
         <v>12300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,44 +4540,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E89" s="3">
         <v>37600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>48700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>57000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>11</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,44 +4616,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,44 +4773,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>11</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,44 +5059,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-72200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>82500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>11</v>
       </c>
@@ -4866,44 +5112,47 @@
       <c r="R100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4916,44 +5165,47 @@
       <c r="R101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>23100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>39700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>116600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>11</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>11</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>ALGM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,270 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F7" s="2">
         <v>44736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43644</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>39353</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>39262</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>39171</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>39080</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>248800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>237700</v>
+      </c>
+      <c r="F8" s="3">
         <v>217800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>200300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>186600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>193600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>188100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>175100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>164400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>136600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>115000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>650100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>152400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>79700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>78700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>79300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>80200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>105600</v>
+      </c>
+      <c r="F9" s="3">
         <v>99400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>90700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>85500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>91100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>94000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>88100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>90000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>74900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>59300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>388800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>93100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>53700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>53900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>51300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>52700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>132100</v>
+      </c>
+      <c r="F10" s="3">
         <v>118400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>109600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>101100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>102500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>94100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>87000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>74400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>61700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>55700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>261300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>59300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>26000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>24800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>28000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>27500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F12" s="3">
         <v>33700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>32400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>30300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>29600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>29600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>28100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>31000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>25100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>24400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>102100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>26100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>10700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>10600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>10500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>9500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,38 +1062,44 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
         <v>6100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="3">
         <v>7100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>9100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1073,29 +1112,35 @@
       <c r="P14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1103,28 +1148,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>11</v>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>177800</v>
+      </c>
+      <c r="F17" s="3">
         <v>203000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>170000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>151000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>155100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>155900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>155700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>197700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>124200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>110500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>597300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>144700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>75400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>75800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>73700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>73400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>59900</v>
+      </c>
+      <c r="F18" s="3">
         <v>14800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>30300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>35600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>38500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>32200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>19400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-33300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>12400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>52800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>7700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,137 +1345,151 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>71300</v>
+      </c>
+      <c r="F21" s="3">
         <v>24200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>42200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>51300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>51700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>44100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>29100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-23400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>24200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>16900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>117300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>26100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>11</v>
@@ -1424,129 +1503,147 @@
       <c r="N22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>59100</v>
+      </c>
+      <c r="F23" s="3">
         <v>12200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>30200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>39300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>39400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>32000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>17100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-35600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>11700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>53300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>10600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>6400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-30500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>16200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F26" s="3">
         <v>10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>25700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>33000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>33200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>27700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>37100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>6100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F27" s="3">
         <v>10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>25600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>32900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>33200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>27700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>8600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>37000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>4300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>6100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F33" s="3">
         <v>10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>25600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>32900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>33200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>27700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>37000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>6100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F35" s="3">
         <v>10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>25600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>32900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>33200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>27700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>37000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>6100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F38" s="2">
         <v>44736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43644</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>39353</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>39262</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>39171</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>39080</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2399,46 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>334300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>293600</v>
+      </c>
+      <c r="F41" s="3">
         <v>286600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>282400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>259200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>248600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>221900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>197200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>157700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>202000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>215600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2281,8 +2454,14 @@
       <c r="S41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,44 +2513,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>124500</v>
+      </c>
+      <c r="F43" s="3">
         <v>125000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>120700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>107400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>99100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>103100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>94800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>88900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>77500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>74600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2387,44 +2572,50 @@
       <c r="S43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>98400</v>
+      </c>
+      <c r="F44" s="3">
         <v>88900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>86200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>78900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>78000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>82400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>87500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>94000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>104800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>108400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>11</v>
       </c>
@@ -2440,44 +2631,50 @@
       <c r="S44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F45" s="3">
         <v>28600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>23700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>20200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>45100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>51000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>38000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>11800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2493,44 +2690,50 @@
       <c r="S45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>545500</v>
+      </c>
+      <c r="F46" s="3">
         <v>529000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>511700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>469200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>445900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>452500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>430600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>378500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>407200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>410300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2546,44 +2749,50 @@
       <c r="S46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F47" s="3">
         <v>32000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>67800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>58400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>27200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>26900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>26700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>33300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>81400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>79800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2599,44 +2808,50 @@
       <c r="S47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>233200</v>
+      </c>
+      <c r="F48" s="3">
         <v>230000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>226100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>223600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>215100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>214400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>192400</v>
       </c>
       <c r="J48" s="3">
         <v>214400</v>
       </c>
       <c r="K48" s="3">
+        <v>192400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>214400</v>
+      </c>
+      <c r="M48" s="3">
         <v>217900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>219100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2652,44 +2867,50 @@
       <c r="S48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>80300</v>
+      </c>
+      <c r="F49" s="3">
         <v>56100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>56000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>56000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>56200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>56400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>56500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>56700</v>
       </c>
       <c r="K49" s="3">
         <v>56500</v>
       </c>
       <c r="L49" s="3">
+        <v>56700</v>
+      </c>
+      <c r="M49" s="3">
+        <v>56500</v>
+      </c>
+      <c r="N49" s="3">
         <v>21400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,44 +3044,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>84700</v>
+      </c>
+      <c r="F52" s="3">
         <v>79100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>31100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>44200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>58800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>46600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>41600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>29000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>16700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>18900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3162,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1084100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>979800</v>
+      </c>
+      <c r="F54" s="3">
         <v>926100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>892600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>851400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>803300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>796900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>747700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>711900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>779700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>749500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2970,8 +3221,14 @@
       <c r="S54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,44 +3271,46 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F57" s="3">
         <v>39200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>35100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>38200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>32800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>38800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>37700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>22300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>25000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>22900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3065,25 +3326,31 @@
       <c r="S57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3092,17 +3359,17 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>33000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>33000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3118,44 +3385,50 @@
       <c r="S58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>67400</v>
+      </c>
+      <c r="F59" s="3">
         <v>72600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>69200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>62600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>55600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>80200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>78900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>66800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>64900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>56100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3171,44 +3444,50 @@
       <c r="S59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>112800</v>
+      </c>
+      <c r="F60" s="3">
         <v>111800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>104200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>88400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>119000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>116700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>89100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>122900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>112100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3224,8 +3503,14 @@
       <c r="S60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3251,10 +3536,10 @@
         <v>25000</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3277,44 +3562,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F62" s="3">
         <v>25900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>28000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>29700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>33300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>33500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>19100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>20900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>21300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>13500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3798,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>190700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>165000</v>
+      </c>
+      <c r="F66" s="3">
         <v>163900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>158400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>156700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>147800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>178600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>161900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>136100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>145200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>126500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3542,8 +3857,14 @@
       <c r="S66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +4116,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>248300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>183800</v>
+      </c>
+      <c r="F72" s="3">
         <v>133200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>123000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>97300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>64400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>31200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>208800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>199200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3828,8 +4175,14 @@
       <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4352,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>893400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>814800</v>
+      </c>
+      <c r="F76" s="3">
         <v>762200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>734200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>694700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>655400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>618300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>585800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>575800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>634500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>623000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4040,8 +4411,14 @@
       <c r="S76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F80" s="2">
         <v>44736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43644</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>39353</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>39262</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>39171</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>39080</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F81" s="3">
         <v>10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>25600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>32900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>33200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>27700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>37000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>6100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,50 +4620,52 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F83" s="3">
         <v>11900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>12000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>12000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>12100</v>
       </c>
       <c r="J83" s="3">
         <v>12200</v>
       </c>
       <c r="K83" s="3">
+        <v>12100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>64000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>15500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,50 +4970,56 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>55300</v>
+      </c>
+      <c r="F89" s="3">
         <v>36600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>37600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>48700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>31400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>38500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>57000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>34900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>25700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>81400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>11</v>
       </c>
@@ -4596,8 +5029,14 @@
       <c r="S89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,50 +5056,52 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-14100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-15300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-14800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-10100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-45600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-10800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,50 +5229,56 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-16100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-26800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-15300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-17800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-7800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-18300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-24300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-41700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>11</v>
       </c>
@@ -4829,8 +5288,14 @@
       <c r="S94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,50 +5547,56 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-9100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-7500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-72200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>82500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>30000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>11</v>
       </c>
@@ -5115,50 +5606,56 @@
       <c r="S100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-6600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-5600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>11</v>
       </c>
@@ -5168,50 +5665,56 @@
       <c r="S101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F102" s="3">
         <v>6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>23100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>26100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>25800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>39700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-44200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-11600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>116600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>21300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>11</v>
       </c>
@@ -5219,6 +5722,12 @@
         <v>11</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALGM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>ALGM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,296 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43644</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>39353</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>39262</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>39171</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>39080</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>278300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>269400</v>
+      </c>
+      <c r="F8" s="3">
         <v>248800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>237700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>217800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>186600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>193600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>188100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>175100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>164400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>136600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>115000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>650100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>152400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>79700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>78700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>79300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>80200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>116400</v>
+      </c>
+      <c r="F9" s="3">
         <v>106200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>105600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>99400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>90700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>85500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>91100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>94000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>88100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>90000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>74900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>59300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>388800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>93100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>53700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>53900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>51300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>52700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>52900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>153000</v>
+      </c>
+      <c r="F10" s="3">
         <v>142600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>132100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>118400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>109600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>101100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>102500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>94100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>87000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>74400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>61700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>55700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>261300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>59300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>26000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>24800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>28000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>27500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +976,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F12" s="3">
         <v>39600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>35600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>33700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>32400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>30300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>29600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>29600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>28100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>31000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>25100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>24400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>102100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>26100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>10700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>10500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>9500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,44 +1102,50 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
         <v>6100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="3">
         <v>7100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>9100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1118,35 +1158,41 @@
       <c r="R14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1154,28 +1200,28 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>11</v>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1258,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>207500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>206300</v>
+      </c>
+      <c r="F17" s="3">
         <v>183200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>177800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>203000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>170000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>151000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>155100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>155900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>155700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>197700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>124200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>110500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>597300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>144700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>75400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>75800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>73700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>73400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F18" s="3">
         <v>65600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>59900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>14800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>30300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>35600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>38500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>32200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-33300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>52800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>7700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>6800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,155 +1413,169 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F20" s="3">
         <v>6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F21" s="3">
         <v>84700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>71300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>24200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>42200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>51300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>51700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>44100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>29100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-23400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>24200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>16900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>117300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>26100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W21" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>11</v>
+        <v>800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>11</v>
@@ -1509,141 +1589,159 @@
       <c r="P22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>67900</v>
+      </c>
+      <c r="F23" s="3">
         <v>72100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>59100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>12200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>30200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>39300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>39400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>32000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>17100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-35600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>11700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>53300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>10600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>5200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>6400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F24" s="3">
         <v>7500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>6300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-30500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>16200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F26" s="3">
         <v>64600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>50600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>10300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>25700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>33000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>33200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>27700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>37100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>6100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F27" s="3">
         <v>64500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>50600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>25600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>32900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>33200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>27700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>37000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>4300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>6100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2189,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F33" s="3">
         <v>64500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>50600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>25600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>32900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>33200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>27700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>37000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>4300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>6100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F35" s="3">
         <v>64500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>50600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>25600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>32900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>33200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>27700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>37000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>4300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>6100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43644</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>39353</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>39262</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>39171</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>39080</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,50 +2573,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>353400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>351600</v>
+      </c>
+      <c r="F41" s="3">
         <v>334300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>293600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>286600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>282400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>259200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>248600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>221900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>197200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>157700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>202000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>215600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2460,8 +2634,14 @@
       <c r="U41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,50 +2699,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>130500</v>
+      </c>
+      <c r="F43" s="3">
         <v>134200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>124500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>125000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>120700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>107400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>99100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>103100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>94800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>88900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>77500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>74600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2578,50 +2764,56 @@
       <c r="U43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>151300</v>
+      </c>
+      <c r="F44" s="3">
         <v>119600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>98400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>88900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>86200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>78900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>78000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>82400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>87500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>94000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>104800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>108400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>11</v>
       </c>
@@ -2637,50 +2829,56 @@
       <c r="U44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F45" s="3">
         <v>31900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>28900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>28600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>22400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>23700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>20200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>45100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>51000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>38000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>22900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>11800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2696,50 +2894,56 @@
       <c r="U45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>665800</v>
+      </c>
+      <c r="F46" s="3">
         <v>620000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>545500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>529000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>511700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>469200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>445900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>452500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>430600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>378500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>407200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>410300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2755,50 +2959,56 @@
       <c r="U46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>82400</v>
+      </c>
+      <c r="F47" s="3">
         <v>37300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>36100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>32000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>67800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>58400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>27200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>26900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>26700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>33300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>81400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>79800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2814,50 +3024,56 @@
       <c r="U47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>305900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>280000</v>
+      </c>
+      <c r="F48" s="3">
         <v>246800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>233200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>230000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>226100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>223600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>215100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>214400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>192400</v>
       </c>
       <c r="L48" s="3">
         <v>214400</v>
       </c>
       <c r="M48" s="3">
+        <v>192400</v>
+      </c>
+      <c r="N48" s="3">
+        <v>214400</v>
+      </c>
+      <c r="O48" s="3">
         <v>217900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>219100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2873,50 +3089,56 @@
       <c r="U48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>80100</v>
+      </c>
+      <c r="F49" s="3">
         <v>81400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>80300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>56100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>56000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>56000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>56200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>56400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>56500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>56700</v>
       </c>
       <c r="M49" s="3">
         <v>56500</v>
       </c>
       <c r="N49" s="3">
+        <v>56700</v>
+      </c>
+      <c r="O49" s="3">
+        <v>56500</v>
+      </c>
+      <c r="P49" s="3">
         <v>21400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,50 +3284,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>72900</v>
+      </c>
+      <c r="F52" s="3">
         <v>98600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>84700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>79100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>31100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>44200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>58800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>46600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>41600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>29000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>16700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>18900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,50 +3414,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1234100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1181200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1084100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>979800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>926100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>892600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>851400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>803300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>796900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>747700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>711900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>779700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>749500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3227,8 +3479,14 @@
       <c r="U54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,50 +3533,52 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>65900</v>
+      </c>
+      <c r="F57" s="3">
         <v>55600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>45300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>39200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>35100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>38200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>32800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>38800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>37700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>22300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>25000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>22900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3332,8 +3594,14 @@
       <c r="U57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3365,17 +3633,17 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>33000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>33000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3391,50 +3659,56 @@
       <c r="U58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>99400</v>
+      </c>
+      <c r="F59" s="3">
         <v>81600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>67400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>72600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>69200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>62600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>55600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>80200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>78900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>66800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>64900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>56100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3450,50 +3724,56 @@
       <c r="U59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>165300</v>
+      </c>
+      <c r="F60" s="3">
         <v>137200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>112800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>111800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>104200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>100800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>88400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>119000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>116700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>89100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>122900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>112100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3509,8 +3789,14 @@
       <c r="U60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3542,10 +3828,10 @@
         <v>25000</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3568,50 +3854,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F62" s="3">
         <v>27300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>26200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>25900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>28000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>29700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>33300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>33500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>19100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>20900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>21300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>13500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,50 +4114,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>207500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>215500</v>
+      </c>
+      <c r="F66" s="3">
         <v>190700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>165000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>163900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>158400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>156700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>147800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>178600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>161900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>136100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>145200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>126500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3863,8 +4179,14 @@
       <c r="U66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,50 +4464,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>371200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>310300</v>
+      </c>
+      <c r="F72" s="3">
         <v>248300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>183800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>133200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>123000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>97300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>64400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>31200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>208800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>199200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4181,8 +4529,14 @@
       <c r="U72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,50 +4724,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1026600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>965600</v>
+      </c>
+      <c r="F76" s="3">
         <v>893400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>814800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>762200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>734200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>694700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>655400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>618300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>585800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>575800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>634500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>623000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4417,8 +4789,14 @@
       <c r="U76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43644</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>39353</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>39262</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>39171</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>39080</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>38989</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F81" s="3">
         <v>64500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>50600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>25600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>32900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>33200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>27700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>37000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>4300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>6100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,56 +5018,58 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F83" s="3">
         <v>12600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>11900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>12000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>12200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>12100</v>
       </c>
       <c r="L83" s="3">
         <v>12200</v>
       </c>
       <c r="M83" s="3">
+        <v>12100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="O83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>64000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>15500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,56 +5404,62 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F89" s="3">
         <v>53900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>55300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>36600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>37600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>48700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>31400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>38500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>57000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>34900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>25700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>81400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>11</v>
       </c>
@@ -5035,8 +5469,14 @@
       <c r="U89" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,56 +5498,58 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-20800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-14400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-14100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-22000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-18500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-15300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-14800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-10100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-45600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>11</v>
       </c>
@@ -5117,8 +5559,14 @@
       <c r="U91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,56 +5689,62 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-40600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-14400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-16100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-26800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-15300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-18300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-24300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-41700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>11</v>
       </c>
@@ -5294,8 +5754,14 @@
       <c r="U94" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,56 +6039,62 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-9100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-7500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-72200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>82500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>30000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>11</v>
       </c>
@@ -5612,56 +6104,62 @@
       <c r="U100" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-6600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>11</v>
       </c>
@@ -5671,56 +6169,62 @@
       <c r="U101" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F102" s="3">
         <v>40800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>23100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>26100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>25800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>39700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-44200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-11600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>116600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>21300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>11</v>
       </c>
@@ -5728,6 +6232,12 @@
         <v>11</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>11</v>
       </c>
     </row>
